--- a/apps/platform/metadata/monthlyTranscodingReport-2018-09.xlsx
+++ b/apps/platform/metadata/monthlyTranscodingReport-2018-09.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
   <si>
     <t>Account ID</t>
   </si>
@@ -29,19 +29,19 @@
     <t>Child Account Name</t>
   </si>
   <si>
-    <t>SD Minutes Used</t>
-  </si>
-  <si>
-    <t>HD Minutes Used</t>
-  </si>
-  <si>
-    <t>UHD Minutes Used</t>
-  </si>
-  <si>
-    <t>Audio Only Minutes Used</t>
-  </si>
-  <si>
-    <t>Total Minutes Used</t>
+    <t>SD Minutes Transcoded</t>
+  </si>
+  <si>
+    <t>HD Minutes Transcoded</t>
+  </si>
+  <si>
+    <t>UHD Minutes Transcoded</t>
+  </si>
+  <si>
+    <t>Audio Only Minutes Transcoded</t>
+  </si>
+  <si>
+    <t>Total Minutes Transcoded</t>
   </si>
   <si>
     <t>Transcoding Limit</t>
@@ -191,9 +191,6 @@
     <t>Doc Ensbury Productions</t>
   </si>
   <si>
-    <t>35 Minutes</t>
-  </si>
-  <si>
     <t>Serge Ambroise</t>
   </si>
   <si>
@@ -587,9 +584,6 @@
     <t>Young America Media Network</t>
   </si>
   <si>
-    <t>5 Minutes</t>
-  </si>
-  <si>
     <t>Asian Broadcasting Network</t>
   </si>
   <si>
@@ -713,9 +707,6 @@
     <t>Punch TV Studios</t>
   </si>
   <si>
-    <t>100 Minutes</t>
-  </si>
-  <si>
     <t>GlobalCastMD</t>
   </si>
   <si>
@@ -863,9 +854,6 @@
     <t>Exhibe Flix</t>
   </si>
   <si>
-    <t>50 Minutes</t>
-  </si>
-  <si>
     <t>Sphericam</t>
   </si>
   <si>
@@ -1118,9 +1106,6 @@
     <t>RoyalTeck Inc</t>
   </si>
   <si>
-    <t>45 Minutes</t>
-  </si>
-  <si>
     <t>Iglesia De Cristo Camino De Santidad</t>
   </si>
   <si>
@@ -1379,13 +1364,7 @@
     <t>Pivot Design Media</t>
   </si>
   <si>
-    <t>1 Minutes</t>
-  </si>
-  <si>
     <t>Omaha Reggae Vibes</t>
-  </si>
-  <si>
-    <t>15 Minutes</t>
   </si>
   <si>
     <t>KOSW RADIO</t>
@@ -3094,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3102,7 +3081,7 @@
         <v>10290</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3128,7 +3107,7 @@
         <v>10294</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3154,7 +3133,7 @@
         <v>10297</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3180,7 +3159,7 @@
         <v>10316</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3206,7 +3185,7 @@
         <v>10318</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3232,7 +3211,7 @@
         <v>10323</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3258,7 +3237,7 @@
         <v>10333</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3284,7 +3263,7 @@
         <v>10336</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3310,7 +3289,7 @@
         <v>10337</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3336,7 +3315,7 @@
         <v>10339</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3362,7 +3341,7 @@
         <v>10341</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3388,7 +3367,7 @@
         <v>10347</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3414,7 +3393,7 @@
         <v>10349</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3440,7 +3419,7 @@
         <v>10351</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3466,7 +3445,7 @@
         <v>10352</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3492,7 +3471,7 @@
         <v>10353</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3518,7 +3497,7 @@
         <v>10354</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3544,7 +3523,7 @@
         <v>10355</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3570,7 +3549,7 @@
         <v>10357</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3596,7 +3575,7 @@
         <v>10362</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3622,7 +3601,7 @@
         <v>10366</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3648,7 +3627,7 @@
         <v>10419</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3674,7 +3653,7 @@
         <v>10423</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3700,7 +3679,7 @@
         <v>10428</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3726,7 +3705,7 @@
         <v>10429</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3752,7 +3731,7 @@
         <v>10431</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3778,7 +3757,7 @@
         <v>10433</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3804,7 +3783,7 @@
         <v>10434</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3856,7 +3835,7 @@
         <v>10437</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3882,7 +3861,7 @@
         <v>10438</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3908,7 +3887,7 @@
         <v>10443</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3934,7 +3913,7 @@
         <v>10445</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3960,7 +3939,7 @@
         <v>10449</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3986,7 +3965,7 @@
         <v>10450</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4012,7 +3991,7 @@
         <v>10460</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E87">
         <v>2759.72</v>
@@ -4038,7 +4017,7 @@
         <v>10463</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4064,7 +4043,7 @@
         <v>10468</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4090,7 +4069,7 @@
         <v>10472</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4116,7 +4095,7 @@
         <v>10485</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4142,7 +4121,7 @@
         <v>10491</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4168,7 +4147,7 @@
         <v>10495</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4194,7 +4173,7 @@
         <v>10496</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4220,7 +4199,7 @@
         <v>10506</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4246,7 +4225,7 @@
         <v>10511</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4272,7 +4251,7 @@
         <v>10521</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -4298,7 +4277,7 @@
         <v>10524</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4324,7 +4303,7 @@
         <v>10527</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4350,7 +4329,7 @@
         <v>10532</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4376,7 +4355,7 @@
         <v>10533</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4402,7 +4381,7 @@
         <v>10544</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4428,7 +4407,7 @@
         <v>10550</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4454,7 +4433,7 @@
         <v>10554</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4480,7 +4459,7 @@
         <v>10555</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4506,7 +4485,7 @@
         <v>10558</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4532,7 +4511,7 @@
         <v>10560</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4558,7 +4537,7 @@
         <v>10561</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4584,7 +4563,7 @@
         <v>10563</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4610,7 +4589,7 @@
         <v>10570</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -4636,7 +4615,7 @@
         <v>10576</v>
       </c>
       <c r="B111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -4662,7 +4641,7 @@
         <v>10577</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -4688,7 +4667,7 @@
         <v>10594</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -4714,7 +4693,7 @@
         <v>10599</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -4740,7 +4719,7 @@
         <v>10605</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -4766,7 +4745,7 @@
         <v>10613</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4792,7 +4771,7 @@
         <v>10633</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -4818,7 +4797,7 @@
         <v>10642</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -4844,7 +4823,7 @@
         <v>10645</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4870,7 +4849,7 @@
         <v>10647</v>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4896,7 +4875,7 @@
         <v>10648</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -4922,7 +4901,7 @@
         <v>10652</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -4948,7 +4927,7 @@
         <v>10655</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -4974,7 +4953,7 @@
         <v>10656</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -5000,7 +4979,7 @@
         <v>10664</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E125">
         <v>7002.26</v>
@@ -5026,7 +5005,7 @@
         <v>10671</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -5052,7 +5031,7 @@
         <v>10676</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -5078,7 +5057,7 @@
         <v>10684</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -5104,7 +5083,7 @@
         <v>10688</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -5130,7 +5109,7 @@
         <v>10691</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -5156,7 +5135,7 @@
         <v>10692</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -5182,7 +5161,7 @@
         <v>10698</v>
       </c>
       <c r="B132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -5208,7 +5187,7 @@
         <v>10703</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -5234,7 +5213,7 @@
         <v>10705</v>
       </c>
       <c r="B134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -5260,7 +5239,7 @@
         <v>10706</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -5286,7 +5265,7 @@
         <v>10707</v>
       </c>
       <c r="B136" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -5312,7 +5291,7 @@
         <v>10709</v>
       </c>
       <c r="B137" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -5338,7 +5317,7 @@
         <v>10712</v>
       </c>
       <c r="B138" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -5364,7 +5343,7 @@
         <v>10717</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -5390,7 +5369,7 @@
         <v>10721</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -5416,7 +5395,7 @@
         <v>11803</v>
       </c>
       <c r="D141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -5442,7 +5421,7 @@
         <v>10724</v>
       </c>
       <c r="B142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -5468,7 +5447,7 @@
         <v>10738</v>
       </c>
       <c r="B143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -5520,7 +5499,7 @@
         <v>10747</v>
       </c>
       <c r="B145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -5546,7 +5525,7 @@
         <v>10750</v>
       </c>
       <c r="B146" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -5572,7 +5551,7 @@
         <v>10751</v>
       </c>
       <c r="B147" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -5598,7 +5577,7 @@
         <v>10752</v>
       </c>
       <c r="B148" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -5624,7 +5603,7 @@
         <v>10755</v>
       </c>
       <c r="B149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -5650,7 +5629,7 @@
         <v>10756</v>
       </c>
       <c r="B150" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -5676,7 +5655,7 @@
         <v>10757</v>
       </c>
       <c r="D151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -5702,7 +5681,7 @@
         <v>10758</v>
       </c>
       <c r="D152" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -5728,7 +5707,7 @@
         <v>10759</v>
       </c>
       <c r="D153" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -5754,7 +5733,7 @@
         <v>10760</v>
       </c>
       <c r="D154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -5780,7 +5759,7 @@
         <v>10761</v>
       </c>
       <c r="D155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -5806,7 +5785,7 @@
         <v>10764</v>
       </c>
       <c r="D156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -5832,7 +5811,7 @@
         <v>10766</v>
       </c>
       <c r="D157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -5858,7 +5837,7 @@
         <v>10767</v>
       </c>
       <c r="D158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -5884,7 +5863,7 @@
         <v>10768</v>
       </c>
       <c r="D159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -5910,7 +5889,7 @@
         <v>10770</v>
       </c>
       <c r="D160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -5936,7 +5915,7 @@
         <v>10771</v>
       </c>
       <c r="D161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -5962,7 +5941,7 @@
         <v>10772</v>
       </c>
       <c r="D162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -5988,7 +5967,7 @@
         <v>10796</v>
       </c>
       <c r="D163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -6014,7 +5993,7 @@
         <v>10830</v>
       </c>
       <c r="D164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -6040,7 +6019,7 @@
         <v>10987</v>
       </c>
       <c r="D165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -6066,7 +6045,7 @@
         <v>11008</v>
       </c>
       <c r="D166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -6092,7 +6071,7 @@
         <v>11213</v>
       </c>
       <c r="D167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -6118,7 +6097,7 @@
         <v>11233</v>
       </c>
       <c r="D168" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -6144,7 +6123,7 @@
         <v>11238</v>
       </c>
       <c r="D169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -6170,7 +6149,7 @@
         <v>11323</v>
       </c>
       <c r="D170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -6196,7 +6175,7 @@
         <v>10763</v>
       </c>
       <c r="B171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -6222,7 +6201,7 @@
         <v>10774</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -6248,7 +6227,7 @@
         <v>10776</v>
       </c>
       <c r="B173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -6274,7 +6253,7 @@
         <v>10779</v>
       </c>
       <c r="B174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -6300,7 +6279,7 @@
         <v>10781</v>
       </c>
       <c r="B175" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -6326,7 +6305,7 @@
         <v>10799</v>
       </c>
       <c r="B176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -6352,7 +6331,7 @@
         <v>10801</v>
       </c>
       <c r="B177" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -6378,7 +6357,7 @@
         <v>10803</v>
       </c>
       <c r="B178" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -6404,7 +6383,7 @@
         <v>10807</v>
       </c>
       <c r="B179" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -6430,7 +6409,7 @@
         <v>10811</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -6456,7 +6435,7 @@
         <v>10816</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -6482,7 +6461,7 @@
         <v>10822</v>
       </c>
       <c r="B182" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -6508,7 +6487,7 @@
         <v>10823</v>
       </c>
       <c r="B183" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -6534,7 +6513,7 @@
         <v>10826</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -6560,7 +6539,7 @@
         <v>10835</v>
       </c>
       <c r="B185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -6586,7 +6565,7 @@
         <v>10836</v>
       </c>
       <c r="B186" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -6604,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6612,7 +6591,7 @@
         <v>10841</v>
       </c>
       <c r="B187" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -6638,7 +6617,7 @@
         <v>10846</v>
       </c>
       <c r="B188" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -6664,7 +6643,7 @@
         <v>10857</v>
       </c>
       <c r="B189" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -6690,7 +6669,7 @@
         <v>10861</v>
       </c>
       <c r="B190" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -6716,7 +6695,7 @@
         <v>10862</v>
       </c>
       <c r="B191" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -6742,7 +6721,7 @@
         <v>10865</v>
       </c>
       <c r="B192" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -6768,7 +6747,7 @@
         <v>10867</v>
       </c>
       <c r="B193" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -6794,7 +6773,7 @@
         <v>10870</v>
       </c>
       <c r="B194" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -6820,7 +6799,7 @@
         <v>10873</v>
       </c>
       <c r="B195" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -6846,7 +6825,7 @@
         <v>10877</v>
       </c>
       <c r="B196" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -6872,7 +6851,7 @@
         <v>10888</v>
       </c>
       <c r="B197" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -6898,7 +6877,7 @@
         <v>10891</v>
       </c>
       <c r="B198" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -6924,7 +6903,7 @@
         <v>10897</v>
       </c>
       <c r="B199" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E199">
         <v>735.3200000000001</v>
@@ -6950,7 +6929,7 @@
         <v>10900</v>
       </c>
       <c r="B200" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -6976,7 +6955,7 @@
         <v>10909</v>
       </c>
       <c r="B201" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -7002,7 +6981,7 @@
         <v>10912</v>
       </c>
       <c r="B202" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -7028,7 +7007,7 @@
         <v>10918</v>
       </c>
       <c r="B203" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -7054,7 +7033,7 @@
         <v>10921</v>
       </c>
       <c r="B204" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -7080,7 +7059,7 @@
         <v>10927</v>
       </c>
       <c r="B205" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -7106,7 +7085,7 @@
         <v>10933</v>
       </c>
       <c r="B206" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -7132,7 +7111,7 @@
         <v>10939</v>
       </c>
       <c r="B207" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -7158,7 +7137,7 @@
         <v>11033</v>
       </c>
       <c r="D208" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -7184,7 +7163,7 @@
         <v>10945</v>
       </c>
       <c r="B209" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -7210,7 +7189,7 @@
         <v>10955</v>
       </c>
       <c r="B210" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -7236,7 +7215,7 @@
         <v>10966</v>
       </c>
       <c r="B211" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -7262,7 +7241,7 @@
         <v>10978</v>
       </c>
       <c r="B212" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -7288,7 +7267,7 @@
         <v>10981</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -7314,7 +7293,7 @@
         <v>10993</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -7340,7 +7319,7 @@
         <v>10996</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -7366,7 +7345,7 @@
         <v>11011</v>
       </c>
       <c r="B216" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -7392,7 +7371,7 @@
         <v>11017</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -7418,7 +7397,7 @@
         <v>11020</v>
       </c>
       <c r="B218" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -7444,7 +7423,7 @@
         <v>11029</v>
       </c>
       <c r="B219" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -7470,7 +7449,7 @@
         <v>11036</v>
       </c>
       <c r="B220" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -7496,7 +7475,7 @@
         <v>11038</v>
       </c>
       <c r="B221" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -7522,7 +7501,7 @@
         <v>11053</v>
       </c>
       <c r="B222" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -7548,7 +7527,7 @@
         <v>11067</v>
       </c>
       <c r="B223" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -7574,7 +7553,7 @@
         <v>11094</v>
       </c>
       <c r="B224" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -7600,7 +7579,7 @@
         <v>11104</v>
       </c>
       <c r="B225" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -7626,7 +7605,7 @@
         <v>11109</v>
       </c>
       <c r="B226" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -7652,7 +7631,7 @@
         <v>11139</v>
       </c>
       <c r="B227" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -7678,7 +7657,7 @@
         <v>11189</v>
       </c>
       <c r="B228" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E228">
         <v>22.6</v>
@@ -7696,7 +7675,7 @@
         <v>67.7</v>
       </c>
       <c r="J228" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -7704,7 +7683,7 @@
         <v>11199</v>
       </c>
       <c r="B229" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -7730,7 +7709,7 @@
         <v>11263</v>
       </c>
       <c r="B230" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -7756,7 +7735,7 @@
         <v>11268</v>
       </c>
       <c r="B231" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E231">
         <v>384.6</v>
@@ -7782,7 +7761,7 @@
         <v>11312</v>
       </c>
       <c r="B232" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -7808,7 +7787,7 @@
         <v>11328</v>
       </c>
       <c r="B233" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -7834,7 +7813,7 @@
         <v>11348</v>
       </c>
       <c r="B234" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -7860,7 +7839,7 @@
         <v>11358</v>
       </c>
       <c r="B235" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -7886,7 +7865,7 @@
         <v>11363</v>
       </c>
       <c r="B236" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -7912,7 +7891,7 @@
         <v>11373</v>
       </c>
       <c r="B237" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -7938,7 +7917,7 @@
         <v>11393</v>
       </c>
       <c r="B238" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -7964,7 +7943,7 @@
         <v>11423</v>
       </c>
       <c r="B239" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -7990,7 +7969,7 @@
         <v>11428</v>
       </c>
       <c r="B240" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -8016,7 +7995,7 @@
         <v>11433</v>
       </c>
       <c r="B241" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -8042,7 +8021,7 @@
         <v>11443</v>
       </c>
       <c r="B242" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -8068,7 +8047,7 @@
         <v>11448</v>
       </c>
       <c r="B243" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -8094,7 +8073,7 @@
         <v>11468</v>
       </c>
       <c r="B244" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -8120,7 +8099,7 @@
         <v>11473</v>
       </c>
       <c r="B245" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -8146,7 +8125,7 @@
         <v>11478</v>
       </c>
       <c r="B246" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -8172,7 +8151,7 @@
         <v>11523</v>
       </c>
       <c r="B247" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -8198,7 +8177,7 @@
         <v>11558</v>
       </c>
       <c r="B248" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -8224,7 +8203,7 @@
         <v>11563</v>
       </c>
       <c r="B249" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -8250,7 +8229,7 @@
         <v>11568</v>
       </c>
       <c r="B250" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -8276,7 +8255,7 @@
         <v>11583</v>
       </c>
       <c r="B251" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -8302,7 +8281,7 @@
         <v>11638</v>
       </c>
       <c r="B252" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -8328,7 +8307,7 @@
         <v>11643</v>
       </c>
       <c r="B253" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -8354,7 +8333,7 @@
         <v>11648</v>
       </c>
       <c r="B254" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -8380,7 +8359,7 @@
         <v>11663</v>
       </c>
       <c r="B255" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -8406,7 +8385,7 @@
         <v>11668</v>
       </c>
       <c r="B256" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -8432,7 +8411,7 @@
         <v>11673</v>
       </c>
       <c r="B257" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -8458,7 +8437,7 @@
         <v>11678</v>
       </c>
       <c r="B258" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -8484,7 +8463,7 @@
         <v>11693</v>
       </c>
       <c r="B259" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -8510,7 +8489,7 @@
         <v>11703</v>
       </c>
       <c r="D260" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E260">
         <v>791.1900000000001</v>
@@ -8536,7 +8515,7 @@
         <v>11738</v>
       </c>
       <c r="D261" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -8562,7 +8541,7 @@
         <v>11748</v>
       </c>
       <c r="D262" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -8588,7 +8567,7 @@
         <v>12484</v>
       </c>
       <c r="D263" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -8614,7 +8593,7 @@
         <v>11778</v>
       </c>
       <c r="B264" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -8640,7 +8619,7 @@
         <v>11798</v>
       </c>
       <c r="B265" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -8666,7 +8645,7 @@
         <v>11838</v>
       </c>
       <c r="B266" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -8692,7 +8671,7 @@
         <v>11853</v>
       </c>
       <c r="B267" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E267">
         <v>15791.22</v>
@@ -8718,7 +8697,7 @@
         <v>11858</v>
       </c>
       <c r="B268" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -8744,7 +8723,7 @@
         <v>11873</v>
       </c>
       <c r="B269" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -8770,7 +8749,7 @@
         <v>11878</v>
       </c>
       <c r="B270" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -8796,7 +8775,7 @@
         <v>11883</v>
       </c>
       <c r="B271" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -8822,7 +8801,7 @@
         <v>11914</v>
       </c>
       <c r="B272" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -8848,7 +8827,7 @@
         <v>11924</v>
       </c>
       <c r="B273" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -8874,7 +8853,7 @@
         <v>11929</v>
       </c>
       <c r="B274" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -8900,7 +8879,7 @@
         <v>11949</v>
       </c>
       <c r="B275" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -8926,7 +8905,7 @@
         <v>11954</v>
       </c>
       <c r="B276" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -8952,7 +8931,7 @@
         <v>11989</v>
       </c>
       <c r="B277" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -8978,7 +8957,7 @@
         <v>11999</v>
       </c>
       <c r="B278" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -9004,7 +8983,7 @@
         <v>12009</v>
       </c>
       <c r="B279" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E279">
         <v>6494.49</v>
@@ -9022,10 +9001,7 @@
         <v>6494.49</v>
       </c>
       <c r="J279" t="s">
-        <v>282</v>
-      </c>
-      <c r="K279">
-        <v>6444.49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -9033,7 +9009,7 @@
         <v>12019</v>
       </c>
       <c r="B280" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -9059,7 +9035,7 @@
         <v>12024</v>
       </c>
       <c r="B281" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -9085,7 +9061,7 @@
         <v>12029</v>
       </c>
       <c r="B282" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -9111,7 +9087,7 @@
         <v>12034</v>
       </c>
       <c r="B283" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -9137,7 +9113,7 @@
         <v>12039</v>
       </c>
       <c r="B284" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -9163,7 +9139,7 @@
         <v>12049</v>
       </c>
       <c r="B285" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -9189,7 +9165,7 @@
         <v>12054</v>
       </c>
       <c r="B286" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -9215,7 +9191,7 @@
         <v>12059</v>
       </c>
       <c r="B287" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -9241,7 +9217,7 @@
         <v>12064</v>
       </c>
       <c r="B288" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -9267,7 +9243,7 @@
         <v>12134</v>
       </c>
       <c r="B289" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -9293,7 +9269,7 @@
         <v>12139</v>
       </c>
       <c r="B290" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -9319,7 +9295,7 @@
         <v>12144</v>
       </c>
       <c r="B291" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -9345,7 +9321,7 @@
         <v>12154</v>
       </c>
       <c r="B292" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -9371,7 +9347,7 @@
         <v>12214</v>
       </c>
       <c r="B293" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -9397,7 +9373,7 @@
         <v>12229</v>
       </c>
       <c r="B294" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -9423,7 +9399,7 @@
         <v>12239</v>
       </c>
       <c r="B295" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -9449,7 +9425,7 @@
         <v>12249</v>
       </c>
       <c r="B296" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -9475,7 +9451,7 @@
         <v>12259</v>
       </c>
       <c r="B297" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -9501,7 +9477,7 @@
         <v>12264</v>
       </c>
       <c r="B298" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -9527,7 +9503,7 @@
         <v>12279</v>
       </c>
       <c r="B299" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -9553,7 +9529,7 @@
         <v>12284</v>
       </c>
       <c r="B300" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -9579,7 +9555,7 @@
         <v>12289</v>
       </c>
       <c r="B301" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -9605,7 +9581,7 @@
         <v>12294</v>
       </c>
       <c r="B302" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -9631,7 +9607,7 @@
         <v>12299</v>
       </c>
       <c r="B303" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -9657,7 +9633,7 @@
         <v>12344</v>
       </c>
       <c r="B304" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -9683,7 +9659,7 @@
         <v>12354</v>
       </c>
       <c r="B305" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -9709,7 +9685,7 @@
         <v>12374</v>
       </c>
       <c r="B306" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -9735,7 +9711,7 @@
         <v>12384</v>
       </c>
       <c r="B307" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -9761,7 +9737,7 @@
         <v>12389</v>
       </c>
       <c r="B308" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -9787,7 +9763,7 @@
         <v>12414</v>
       </c>
       <c r="B309" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -9813,7 +9789,7 @@
         <v>12419</v>
       </c>
       <c r="B310" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E310">
         <v>72.48</v>
@@ -9839,7 +9815,7 @@
         <v>12424</v>
       </c>
       <c r="B311" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -9865,7 +9841,7 @@
         <v>12429</v>
       </c>
       <c r="B312" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -9891,7 +9867,7 @@
         <v>12434</v>
       </c>
       <c r="B313" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -9917,7 +9893,7 @@
         <v>12439</v>
       </c>
       <c r="B314" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -9943,7 +9919,7 @@
         <v>12444</v>
       </c>
       <c r="B315" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -9969,7 +9945,7 @@
         <v>12449</v>
       </c>
       <c r="B316" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -9995,7 +9971,7 @@
         <v>12454</v>
       </c>
       <c r="B317" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -10021,7 +9997,7 @@
         <v>12459</v>
       </c>
       <c r="B318" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -10047,7 +10023,7 @@
         <v>12464</v>
       </c>
       <c r="B319" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -10073,7 +10049,7 @@
         <v>12500</v>
       </c>
       <c r="D320" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -10099,7 +10075,7 @@
         <v>12471</v>
       </c>
       <c r="B321" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -10125,7 +10101,7 @@
         <v>12479</v>
       </c>
       <c r="B322" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -10151,7 +10127,7 @@
         <v>12489</v>
       </c>
       <c r="B323" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -10177,7 +10153,7 @@
         <v>12490</v>
       </c>
       <c r="B324" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -10203,7 +10179,7 @@
         <v>12495</v>
       </c>
       <c r="B325" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -10229,7 +10205,7 @@
         <v>12505</v>
       </c>
       <c r="B326" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -10255,7 +10231,7 @@
         <v>12530</v>
       </c>
       <c r="B327" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -10281,7 +10257,7 @@
         <v>12540</v>
       </c>
       <c r="B328" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -10307,7 +10283,7 @@
         <v>12550</v>
       </c>
       <c r="B329" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -10333,7 +10309,7 @@
         <v>12555</v>
       </c>
       <c r="D330" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -10359,7 +10335,7 @@
         <v>12590</v>
       </c>
       <c r="B331" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -10385,7 +10361,7 @@
         <v>12610</v>
       </c>
       <c r="B332" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -10411,7 +10387,7 @@
         <v>12613</v>
       </c>
       <c r="B333" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -10437,7 +10413,7 @@
         <v>12623</v>
       </c>
       <c r="B334" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -10463,7 +10439,7 @@
         <v>12688</v>
       </c>
       <c r="B335" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -10489,7 +10465,7 @@
         <v>12693</v>
       </c>
       <c r="B336" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -10515,7 +10491,7 @@
         <v>12703</v>
       </c>
       <c r="B337" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -10541,7 +10517,7 @@
         <v>12708</v>
       </c>
       <c r="D338" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -10567,7 +10543,7 @@
         <v>13676</v>
       </c>
       <c r="D339" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -10593,7 +10569,7 @@
         <v>13691</v>
       </c>
       <c r="D340" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -10619,7 +10595,7 @@
         <v>12713</v>
       </c>
       <c r="B341" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -10645,7 +10621,7 @@
         <v>12733</v>
       </c>
       <c r="D342" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -10671,7 +10647,7 @@
         <v>12723</v>
       </c>
       <c r="B343" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -10697,7 +10673,7 @@
         <v>12748</v>
       </c>
       <c r="B344" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -10723,7 +10699,7 @@
         <v>12753</v>
       </c>
       <c r="B345" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -10749,7 +10725,7 @@
         <v>12773</v>
       </c>
       <c r="B346" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E346">
         <v>19.33</v>
@@ -10767,7 +10743,7 @@
         <v>32.9</v>
       </c>
       <c r="J346" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -10775,7 +10751,7 @@
         <v>12778</v>
       </c>
       <c r="B347" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -10801,7 +10777,7 @@
         <v>12788</v>
       </c>
       <c r="B348" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -10827,7 +10803,7 @@
         <v>12793</v>
       </c>
       <c r="B349" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -10853,7 +10829,7 @@
         <v>12808</v>
       </c>
       <c r="D350" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -10879,7 +10855,7 @@
         <v>12828</v>
       </c>
       <c r="D351" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -10905,7 +10881,7 @@
         <v>12798</v>
       </c>
       <c r="B352" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -10931,7 +10907,7 @@
         <v>12833</v>
       </c>
       <c r="B353" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -10957,7 +10933,7 @@
         <v>12838</v>
       </c>
       <c r="B354" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -10983,7 +10959,7 @@
         <v>12843</v>
       </c>
       <c r="B355" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -11009,7 +10985,7 @@
         <v>12848</v>
       </c>
       <c r="B356" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E356">
         <v>0</v>
@@ -11035,7 +11011,7 @@
         <v>12863</v>
       </c>
       <c r="B357" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E357">
         <v>0</v>
@@ -11061,7 +11037,7 @@
         <v>12868</v>
       </c>
       <c r="B358" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -11087,7 +11063,7 @@
         <v>12873</v>
       </c>
       <c r="B359" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -11113,7 +11089,7 @@
         <v>12878</v>
       </c>
       <c r="B360" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -11139,7 +11115,7 @@
         <v>12888</v>
       </c>
       <c r="B361" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E361">
         <v>0</v>
@@ -11165,7 +11141,7 @@
         <v>12893</v>
       </c>
       <c r="B362" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E362">
         <v>0</v>
@@ -11191,7 +11167,7 @@
         <v>12908</v>
       </c>
       <c r="B363" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E363">
         <v>19.57</v>
@@ -11217,7 +11193,7 @@
         <v>12913</v>
       </c>
       <c r="B364" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -11235,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="J364" t="s">
-        <v>367</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -11243,7 +11219,7 @@
         <v>12918</v>
       </c>
       <c r="B365" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E365">
         <v>0</v>
@@ -11269,7 +11245,7 @@
         <v>12923</v>
       </c>
       <c r="B366" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E366">
         <v>0</v>
@@ -11295,7 +11271,7 @@
         <v>13108</v>
       </c>
       <c r="D367" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E367">
         <v>0</v>
@@ -11321,7 +11297,7 @@
         <v>13113</v>
       </c>
       <c r="D368" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E368">
         <v>0</v>
@@ -11347,7 +11323,7 @@
         <v>13118</v>
       </c>
       <c r="D369" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E369">
         <v>0</v>
@@ -11373,7 +11349,7 @@
         <v>13128</v>
       </c>
       <c r="D370" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E370">
         <v>0</v>
@@ -11399,7 +11375,7 @@
         <v>13133</v>
       </c>
       <c r="D371" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E371">
         <v>0</v>
@@ -11425,7 +11401,7 @@
         <v>13138</v>
       </c>
       <c r="D372" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E372">
         <v>0</v>
@@ -11451,7 +11427,7 @@
         <v>13148</v>
       </c>
       <c r="D373" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E373">
         <v>0</v>
@@ -11477,7 +11453,7 @@
         <v>13153</v>
       </c>
       <c r="D374" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E374">
         <v>0</v>
@@ -11503,7 +11479,7 @@
         <v>13158</v>
       </c>
       <c r="D375" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E375">
         <v>0</v>
@@ -11529,7 +11505,7 @@
         <v>13163</v>
       </c>
       <c r="D376" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E376">
         <v>0</v>
@@ -11555,7 +11531,7 @@
         <v>13168</v>
       </c>
       <c r="D377" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E377">
         <v>0</v>
@@ -11581,7 +11557,7 @@
         <v>13173</v>
       </c>
       <c r="D378" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E378">
         <v>0</v>
@@ -11607,7 +11583,7 @@
         <v>13178</v>
       </c>
       <c r="D379" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E379">
         <v>9.17</v>
@@ -11633,7 +11609,7 @@
         <v>13183</v>
       </c>
       <c r="D380" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E380">
         <v>0</v>
@@ -11659,7 +11635,7 @@
         <v>13188</v>
       </c>
       <c r="D381" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E381">
         <v>0</v>
@@ -11685,7 +11661,7 @@
         <v>13193</v>
       </c>
       <c r="D382" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E382">
         <v>0</v>
@@ -11711,7 +11687,7 @@
         <v>13198</v>
       </c>
       <c r="D383" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E383">
         <v>0</v>
@@ -11737,7 +11713,7 @@
         <v>13208</v>
       </c>
       <c r="D384" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E384">
         <v>0</v>
@@ -11763,7 +11739,7 @@
         <v>13213</v>
       </c>
       <c r="D385" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E385">
         <v>0</v>
@@ -11789,7 +11765,7 @@
         <v>13218</v>
       </c>
       <c r="D386" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E386">
         <v>0</v>
@@ -11815,7 +11791,7 @@
         <v>13223</v>
       </c>
       <c r="D387" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E387">
         <v>0</v>
@@ -11841,7 +11817,7 @@
         <v>13238</v>
       </c>
       <c r="D388" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E388">
         <v>0</v>
@@ -11867,7 +11843,7 @@
         <v>13253</v>
       </c>
       <c r="D389" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E389">
         <v>0</v>
@@ -11893,7 +11869,7 @@
         <v>13258</v>
       </c>
       <c r="D390" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E390">
         <v>0</v>
@@ -11919,7 +11895,7 @@
         <v>13268</v>
       </c>
       <c r="D391" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E391">
         <v>0</v>
@@ -11945,7 +11921,7 @@
         <v>13273</v>
       </c>
       <c r="D392" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E392">
         <v>0</v>
@@ -11971,7 +11947,7 @@
         <v>13278</v>
       </c>
       <c r="D393" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E393">
         <v>0</v>
@@ -11997,7 +11973,7 @@
         <v>13283</v>
       </c>
       <c r="D394" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E394">
         <v>0</v>
@@ -12023,7 +11999,7 @@
         <v>13288</v>
       </c>
       <c r="D395" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E395">
         <v>0</v>
@@ -12049,7 +12025,7 @@
         <v>13308</v>
       </c>
       <c r="D396" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E396">
         <v>0</v>
@@ -12075,7 +12051,7 @@
         <v>13313</v>
       </c>
       <c r="D397" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E397">
         <v>0</v>
@@ -12101,7 +12077,7 @@
         <v>13333</v>
       </c>
       <c r="D398" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E398">
         <v>0</v>
@@ -12127,7 +12103,7 @@
         <v>13338</v>
       </c>
       <c r="D399" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E399">
         <v>0</v>
@@ -12153,7 +12129,7 @@
         <v>13358</v>
       </c>
       <c r="D400" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E400">
         <v>0</v>
@@ -12179,7 +12155,7 @@
         <v>13498</v>
       </c>
       <c r="D401" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E401">
         <v>0</v>
@@ -12205,7 +12181,7 @@
         <v>13518</v>
       </c>
       <c r="D402" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E402">
         <v>0</v>
@@ -12231,7 +12207,7 @@
         <v>13538</v>
       </c>
       <c r="D403" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E403">
         <v>0</v>
@@ -12257,7 +12233,7 @@
         <v>13543</v>
       </c>
       <c r="D404" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E404">
         <v>0</v>
@@ -12283,7 +12259,7 @@
         <v>13553</v>
       </c>
       <c r="D405" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E405">
         <v>0</v>
@@ -12309,7 +12285,7 @@
         <v>13558</v>
       </c>
       <c r="D406" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E406">
         <v>0</v>
@@ -12335,7 +12311,7 @@
         <v>13596</v>
       </c>
       <c r="D407" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E407">
         <v>0</v>
@@ -12361,7 +12337,7 @@
         <v>13601</v>
       </c>
       <c r="D408" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E408">
         <v>0</v>
@@ -12387,7 +12363,7 @@
         <v>13606</v>
       </c>
       <c r="D409" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E409">
         <v>0</v>
@@ -12413,7 +12389,7 @@
         <v>13631</v>
       </c>
       <c r="D410" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E410">
         <v>0</v>
@@ -12439,7 +12415,7 @@
         <v>13656</v>
       </c>
       <c r="D411" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E411">
         <v>0</v>
@@ -12465,7 +12441,7 @@
         <v>13661</v>
       </c>
       <c r="D412" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E412">
         <v>0</v>
@@ -12491,7 +12467,7 @@
         <v>12938</v>
       </c>
       <c r="B413" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E413">
         <v>0</v>
@@ -12517,7 +12493,7 @@
         <v>13318</v>
       </c>
       <c r="B414" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E414">
         <v>0</v>
@@ -12543,7 +12519,7 @@
         <v>13323</v>
       </c>
       <c r="B415" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E415">
         <v>0</v>
@@ -12569,7 +12545,7 @@
         <v>13328</v>
       </c>
       <c r="B416" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E416">
         <v>1056.21</v>
@@ -12595,7 +12571,7 @@
         <v>13343</v>
       </c>
       <c r="B417" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E417">
         <v>0</v>
@@ -12621,7 +12597,7 @@
         <v>13348</v>
       </c>
       <c r="B418" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E418">
         <v>0</v>
@@ -12647,7 +12623,7 @@
         <v>13353</v>
       </c>
       <c r="B419" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E419">
         <v>0</v>
@@ -12673,7 +12649,7 @@
         <v>13363</v>
       </c>
       <c r="B420" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E420">
         <v>0</v>
@@ -12699,7 +12675,7 @@
         <v>13368</v>
       </c>
       <c r="B421" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E421">
         <v>0</v>
@@ -12725,7 +12701,7 @@
         <v>13373</v>
       </c>
       <c r="B422" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E422">
         <v>134810.63</v>
@@ -12751,7 +12727,7 @@
         <v>13378</v>
       </c>
       <c r="B423" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E423">
         <v>0</v>
@@ -12777,7 +12753,7 @@
         <v>13383</v>
       </c>
       <c r="B424" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E424">
         <v>0</v>
@@ -12803,7 +12779,7 @@
         <v>13388</v>
       </c>
       <c r="B425" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E425">
         <v>0</v>
@@ -12829,7 +12805,7 @@
         <v>13393</v>
       </c>
       <c r="B426" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E426">
         <v>0</v>
@@ -12855,7 +12831,7 @@
         <v>13398</v>
       </c>
       <c r="B427" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E427">
         <v>0</v>
@@ -12881,7 +12857,7 @@
         <v>13403</v>
       </c>
       <c r="B428" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E428">
         <v>0</v>
@@ -12907,7 +12883,7 @@
         <v>13408</v>
       </c>
       <c r="B429" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E429">
         <v>0</v>
@@ -12933,7 +12909,7 @@
         <v>13413</v>
       </c>
       <c r="B430" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E430">
         <v>0</v>
@@ -12959,7 +12935,7 @@
         <v>13418</v>
       </c>
       <c r="B431" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E431">
         <v>0</v>
@@ -12985,7 +12961,7 @@
         <v>13433</v>
       </c>
       <c r="D432" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E432">
         <v>0</v>
@@ -13011,7 +12987,7 @@
         <v>13423</v>
       </c>
       <c r="B433" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E433">
         <v>0</v>
@@ -13037,7 +13013,7 @@
         <v>13428</v>
       </c>
       <c r="B434" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E434">
         <v>0</v>
@@ -13063,7 +13039,7 @@
         <v>13438</v>
       </c>
       <c r="B435" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E435">
         <v>2.4</v>
@@ -13081,7 +13057,7 @@
         <v>80.43000000000001</v>
       </c>
       <c r="J435" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
     </row>
     <row r="436" spans="1:11">
@@ -13089,7 +13065,7 @@
         <v>13443</v>
       </c>
       <c r="B436" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E436">
         <v>0</v>
@@ -13115,7 +13091,7 @@
         <v>13448</v>
       </c>
       <c r="B437" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E437">
         <v>0</v>
@@ -13141,7 +13117,7 @@
         <v>13453</v>
       </c>
       <c r="B438" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E438">
         <v>0</v>
@@ -13167,7 +13143,7 @@
         <v>13458</v>
       </c>
       <c r="B439" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E439">
         <v>0</v>
@@ -13193,7 +13169,7 @@
         <v>13463</v>
       </c>
       <c r="B440" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E440">
         <v>0</v>
@@ -13219,7 +13195,7 @@
         <v>13468</v>
       </c>
       <c r="B441" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E441">
         <v>0</v>
@@ -13245,7 +13221,7 @@
         <v>13473</v>
       </c>
       <c r="B442" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E442">
         <v>0</v>
@@ -13271,7 +13247,7 @@
         <v>13478</v>
       </c>
       <c r="B443" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E443">
         <v>0</v>
@@ -13297,7 +13273,7 @@
         <v>13493</v>
       </c>
       <c r="B444" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E444">
         <v>0</v>
@@ -13323,7 +13299,7 @@
         <v>13508</v>
       </c>
       <c r="B445" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E445">
         <v>0</v>
@@ -13349,7 +13325,7 @@
         <v>13513</v>
       </c>
       <c r="B446" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E446">
         <v>0</v>
@@ -13375,7 +13351,7 @@
         <v>13523</v>
       </c>
       <c r="B447" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E447">
         <v>0</v>
@@ -13401,7 +13377,7 @@
         <v>13533</v>
       </c>
       <c r="D448" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E448">
         <v>0</v>
@@ -13427,7 +13403,7 @@
         <v>13548</v>
       </c>
       <c r="B449" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E449">
         <v>0</v>
@@ -13445,7 +13421,7 @@
         <v>0</v>
       </c>
       <c r="J449" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
     </row>
     <row r="450" spans="1:11">
@@ -13453,7 +13429,7 @@
         <v>13568</v>
       </c>
       <c r="B450" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E450">
         <v>0</v>
@@ -13479,7 +13455,7 @@
         <v>13573</v>
       </c>
       <c r="B451" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E451">
         <v>0</v>
@@ -13497,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="J451" t="s">
-        <v>454</v>
+        <v>12</v>
       </c>
     </row>
     <row r="452" spans="1:11">
@@ -13505,7 +13481,7 @@
         <v>13578</v>
       </c>
       <c r="B452" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E452">
         <v>0</v>
@@ -13523,7 +13499,7 @@
         <v>0</v>
       </c>
       <c r="J452" t="s">
-        <v>456</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453" spans="1:11">
@@ -13531,7 +13507,7 @@
         <v>13583</v>
       </c>
       <c r="B453" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E453">
         <v>0</v>
@@ -13557,7 +13533,7 @@
         <v>13591</v>
       </c>
       <c r="B454" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E454">
         <v>0</v>
@@ -13575,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="J454" t="s">
-        <v>454</v>
+        <v>12</v>
       </c>
     </row>
     <row r="455" spans="1:11">
@@ -13583,7 +13559,7 @@
         <v>13626</v>
       </c>
       <c r="B455" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E455">
         <v>0</v>
@@ -13601,7 +13577,7 @@
         <v>0</v>
       </c>
       <c r="J455" t="s">
-        <v>456</v>
+        <v>12</v>
       </c>
     </row>
     <row r="456" spans="1:11">
@@ -13609,7 +13585,7 @@
         <v>13636</v>
       </c>
       <c r="B456" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E456">
         <v>0</v>
@@ -13627,7 +13603,7 @@
         <v>0</v>
       </c>
       <c r="J456" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
     </row>
     <row r="457" spans="1:11">
@@ -13635,7 +13611,7 @@
         <v>13641</v>
       </c>
       <c r="B457" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E457">
         <v>0</v>
@@ -13653,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="J457" t="s">
-        <v>454</v>
+        <v>12</v>
       </c>
     </row>
     <row r="458" spans="1:11">
@@ -13661,7 +13637,7 @@
         <v>13646</v>
       </c>
       <c r="B458" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E458">
         <v>0</v>
@@ -13679,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="J458" t="s">
-        <v>456</v>
+        <v>12</v>
       </c>
     </row>
     <row r="459" spans="1:11">
@@ -13687,7 +13663,7 @@
         <v>13651</v>
       </c>
       <c r="B459" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E459">
         <v>0</v>
@@ -13705,7 +13681,7 @@
         <v>0</v>
       </c>
       <c r="J459" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
     </row>
     <row r="460" spans="1:11">
@@ -13713,7 +13689,7 @@
         <v>13666</v>
       </c>
       <c r="B460" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E460">
         <v>0</v>
@@ -13731,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="J460" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
     </row>
     <row r="461" spans="1:11">
@@ -13739,7 +13715,7 @@
         <v>13671</v>
       </c>
       <c r="B461" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E461">
         <v>0</v>
@@ -13757,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="J461" t="s">
-        <v>454</v>
+        <v>12</v>
       </c>
     </row>
     <row r="462" spans="1:11">
@@ -13765,7 +13741,7 @@
         <v>13681</v>
       </c>
       <c r="B462" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E462">
         <v>0</v>
@@ -13783,7 +13759,7 @@
         <v>0</v>
       </c>
       <c r="J462" t="s">
-        <v>454</v>
+        <v>12</v>
       </c>
     </row>
     <row r="463" spans="1:11">
@@ -13791,7 +13767,7 @@
         <v>13686</v>
       </c>
       <c r="B463" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E463">
         <v>0</v>
